--- a/data/trans_dic/P16A08-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16A08-Dificultad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.04686386459791043</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.06851988347175463</v>
+        <v>0.06851988347175461</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01278960406117852</v>
+        <v>0.01185143243387381</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02320157654564536</v>
+        <v>0.02351702043660833</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0202607929496722</v>
+        <v>0.0205112002466671</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03515067069470464</v>
+        <v>0.03589897398134387</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02979308418749751</v>
+        <v>0.02995395257694788</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05452617572553241</v>
+        <v>0.05399215261859991</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04937318340726028</v>
+        <v>0.04950380178662395</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06255409354897264</v>
+        <v>0.06190409121372716</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02572999044152573</v>
+        <v>0.02611215210949056</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04321161713826427</v>
+        <v>0.04325233825283762</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03860576584946009</v>
+        <v>0.0387535451061803</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05411561636744441</v>
+        <v>0.05564944312789658</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0408626998538428</v>
+        <v>0.03781808087586112</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04928563913890682</v>
+        <v>0.04820476916596064</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04133012326425183</v>
+        <v>0.0418691374801193</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07988239333345223</v>
+        <v>0.0786762682770086</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05489196335262167</v>
+        <v>0.05533568475370471</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08658102116550474</v>
+        <v>0.08435629848016085</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07728104769028207</v>
+        <v>0.07702499960552729</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1024461719341331</v>
+        <v>0.101557799530003</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04435889675591776</v>
+        <v>0.0454132316271102</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06302856716951902</v>
+        <v>0.06306118667066291</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.05610305135186303</v>
+        <v>0.05709377472930122</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08212410529251463</v>
+        <v>0.08417965249437241</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.0424348102796788</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.04215125345317176</v>
+        <v>0.04215125345317175</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01323159671408092</v>
+        <v>0.01338558300389648</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01649469358110827</v>
+        <v>0.01682291657066103</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02577145947188127</v>
+        <v>0.02533479916447785</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02802098336631204</v>
+        <v>0.02837993089841786</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02609933173868622</v>
+        <v>0.0258183354313149</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03703260768770489</v>
+        <v>0.03709881260732321</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03624927727747185</v>
+        <v>0.03630269203782419</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03346614049173668</v>
+        <v>0.03280620322328762</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02179194966478161</v>
+        <v>0.02178910935473255</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03081355522214715</v>
+        <v>0.03112102078663854</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03395659612124383</v>
+        <v>0.03392574344926017</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03361824632815389</v>
+        <v>0.03391704083392184</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03173809124684648</v>
+        <v>0.03179096909408217</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03860348377967235</v>
+        <v>0.04083632146698907</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05018490738912544</v>
+        <v>0.0500398091833742</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05842954270457244</v>
+        <v>0.05864850256972667</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05058983055647611</v>
+        <v>0.05046904331973772</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06371812038258755</v>
+        <v>0.06314000000096474</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06270876850035013</v>
+        <v>0.06442674625272168</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05548089440130035</v>
+        <v>0.05497125972081598</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03804439222755381</v>
+        <v>0.03850997312851746</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04729149488149179</v>
+        <v>0.04865865116941893</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05186411621548045</v>
+        <v>0.05231802794463237</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05254751285239075</v>
+        <v>0.05175551742615494</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01904889493787054</v>
+        <v>0.01858930093104938</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02662644943156347</v>
+        <v>0.02564717250689295</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02148492579429041</v>
+        <v>0.02092692428569716</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01531446243417544</v>
+        <v>0.01562361354469048</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02100349746484381</v>
+        <v>0.02078052641585817</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03496443599954055</v>
+        <v>0.03504327462616695</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03315958335966751</v>
+        <v>0.03421460340976117</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02623432434504896</v>
+        <v>0.02632775446330034</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02252287175681644</v>
+        <v>0.02258396816945797</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03422955956817532</v>
+        <v>0.03477834049666791</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02990687635720096</v>
+        <v>0.03021919921442371</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0236072528113489</v>
+        <v>0.02404362564524165</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03947446439284938</v>
+        <v>0.03958876268983216</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05182417636988138</v>
+        <v>0.05045107801547359</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04710290546134112</v>
+        <v>0.04875023734910201</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03969485140267199</v>
+        <v>0.03838749999845727</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04436235089806862</v>
+        <v>0.04313219310884409</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06530899734323303</v>
+        <v>0.06560883786601103</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06320350179815779</v>
+        <v>0.06424996314724633</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04924029368884249</v>
+        <v>0.04898435168838689</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0368149492198805</v>
+        <v>0.0371888978087522</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05333050078989048</v>
+        <v>0.05412336056889073</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05103345377992211</v>
+        <v>0.04875563538830379</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03914280340671087</v>
+        <v>0.03938170244530183</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.02343447450982634</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.02611016541260375</v>
+        <v>0.02611016541260376</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.05399564622711812</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01261448268480077</v>
+        <v>0.01296307844448351</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02543886962095634</v>
+        <v>0.02723338782971261</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01124673204256696</v>
+        <v>0.01163841725327232</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01698730261823377</v>
+        <v>0.01709025406218363</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03294268771815731</v>
+        <v>0.03310596263616156</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02734890529500911</v>
+        <v>0.02929437333404241</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03249153573949311</v>
+        <v>0.03237056863785841</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04019255728281693</v>
+        <v>0.03913424860316275</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02585100940020928</v>
+        <v>0.02520666133613222</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03370784500049258</v>
+        <v>0.03272550570235822</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.027130657047241</v>
+        <v>0.02607706784085551</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03024514411681005</v>
+        <v>0.03065615658056925</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04547918127312787</v>
+        <v>0.04449203955326954</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06649149071494362</v>
+        <v>0.06784634940676942</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04187770726013849</v>
+        <v>0.03975312988553022</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0385536796618163</v>
+        <v>0.03879789936114006</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08618373960461925</v>
+        <v>0.0836168741697856</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06792668982000712</v>
+        <v>0.07032555521777074</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0744872076078008</v>
+        <v>0.07731690576107128</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0659373926525757</v>
+        <v>0.0652496557449008</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05422226298233306</v>
+        <v>0.05327897626023182</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06193179967178415</v>
+        <v>0.06224500593423427</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.05328233230491834</v>
+        <v>0.0526344889124515</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04719678340749083</v>
+        <v>0.04815677090125058</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.03095550502627014</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.03383764066670821</v>
+        <v>0.03383764066670822</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.03800354669555758</v>
@@ -1229,7 +1229,7 @@
         <v>0.0536741687620566</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.04975960816839693</v>
+        <v>0.04975960816839692</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.03106949420843733</v>
@@ -1241,7 +1241,7 @@
         <v>0.04257766088727736</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.04203603655889903</v>
+        <v>0.04203603655889902</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01850781448021498</v>
+        <v>0.01907833784765632</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02779401011037029</v>
+        <v>0.02802396376199144</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02561770478673836</v>
+        <v>0.0252690587474658</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02787307190646313</v>
+        <v>0.0278210100685747</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03194538656473721</v>
+        <v>0.03171216027902566</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04736728226159301</v>
+        <v>0.04723606159607131</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0463928309308132</v>
+        <v>0.04617511638330933</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04366202856408397</v>
+        <v>0.04391226407469612</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02702748245601605</v>
+        <v>0.02720138980079155</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03948304096061621</v>
+        <v>0.03974823005048862</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03751772355500354</v>
+        <v>0.03795280634013448</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03755682530417172</v>
+        <v>0.03762744129667184</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02995829212885831</v>
+        <v>0.02992180196964422</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04163963709042123</v>
+        <v>0.04100216659299161</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03746907692056062</v>
+        <v>0.03745511440276709</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04165574997442711</v>
+        <v>0.04115217742126832</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04486531282347499</v>
+        <v>0.0459577587356951</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06279716026066184</v>
+        <v>0.06286524632315936</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06230101335553658</v>
+        <v>0.06146368691937671</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05687600101939898</v>
+        <v>0.05708290557865916</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03549098242498656</v>
+        <v>0.03583625942011916</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04969111676763738</v>
+        <v>0.0501793765423033</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04717938205150202</v>
+        <v>0.04756997818276269</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04689340510852992</v>
+        <v>0.04739648232312403</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7471</v>
+        <v>6923</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>24125</v>
+        <v>24453</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>22854</v>
+        <v>23137</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>17531</v>
+        <v>17904</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>27479</v>
+        <v>27628</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>60727</v>
+        <v>60132</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>62189</v>
+        <v>62353</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>39007</v>
+        <v>38602</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>38762</v>
+        <v>39337</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>93058</v>
+        <v>93145</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>92174</v>
+        <v>92526</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>60735</v>
+        <v>62456</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>23870</v>
+        <v>22091</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>51248</v>
+        <v>50124</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>46620</v>
+        <v>47228</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>39840</v>
+        <v>39239</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>50629</v>
+        <v>51038</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>96427</v>
+        <v>93949</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>97340</v>
+        <v>97018</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>63883</v>
+        <v>63329</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>66826</v>
+        <v>68414</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>135734</v>
+        <v>135804</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>133949</v>
+        <v>136315</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>92170</v>
+        <v>94477</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>14262</v>
+        <v>14428</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>16075</v>
+        <v>16394</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>23422</v>
+        <v>23025</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>26890</v>
+        <v>27235</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>27601</v>
+        <v>27304</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>40446</v>
+        <v>40518</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>36484</v>
+        <v>36538</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>37323</v>
+        <v>36587</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>46535</v>
+        <v>46529</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>63683</v>
+        <v>64318</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>65037</v>
+        <v>64978</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>69754</v>
+        <v>70374</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>34210</v>
+        <v>34267</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>37620</v>
+        <v>39796</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>45609</v>
+        <v>45477</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>56071</v>
+        <v>56282</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>53501</v>
+        <v>53373</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>69591</v>
+        <v>68960</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>63115</v>
+        <v>64844</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>61875</v>
+        <v>61306</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>81241</v>
+        <v>82235</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>97738</v>
+        <v>100563</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>99335</v>
+        <v>100205</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>109030</v>
+        <v>107387</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>21346</v>
+        <v>20831</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>23543</v>
+        <v>22677</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>17698</v>
+        <v>17239</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>16026</v>
+        <v>16350</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>20876</v>
+        <v>20655</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>30553</v>
+        <v>30622</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>25568</v>
+        <v>26381</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>27475</v>
+        <v>27573</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>47625</v>
+        <v>47754</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>60176</v>
+        <v>61141</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>47696</v>
+        <v>48194</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>49429</v>
+        <v>50342</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>44234</v>
+        <v>44362</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45822</v>
+        <v>44608</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>38801</v>
+        <v>40158</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>41540</v>
+        <v>40172</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>44094</v>
+        <v>42871</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>57069</v>
+        <v>57331</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>48734</v>
+        <v>49541</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>51570</v>
+        <v>51302</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>77846</v>
+        <v>78637</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>93756</v>
+        <v>95149</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>81389</v>
+        <v>77756</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>81957</v>
+        <v>82457</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5641</v>
+        <v>5797</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>12796</v>
+        <v>13699</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5699</v>
+        <v>5897</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>16578</v>
+        <v>16679</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>11239</v>
+        <v>11294</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>12301</v>
+        <v>13176</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>15911</v>
+        <v>15852</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>36521</v>
+        <v>35559</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>20380</v>
+        <v>19872</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>32117</v>
+        <v>31181</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>27033</v>
+        <v>25983</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>56999</v>
+        <v>57774</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>20338</v>
+        <v>19897</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>33447</v>
+        <v>34128</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>21219</v>
+        <v>20143</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>37626</v>
+        <v>37864</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>29402</v>
+        <v>28527</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>30552</v>
+        <v>31631</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>36476</v>
+        <v>37862</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>59913</v>
+        <v>59289</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>42747</v>
+        <v>42003</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>59009</v>
+        <v>59307</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>53090</v>
+        <v>52445</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>88946</v>
+        <v>90755</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>59777</v>
+        <v>61619</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>94543</v>
+        <v>95325</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>86262</v>
+        <v>85088</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>97020</v>
+        <v>96839</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>105898</v>
+        <v>105125</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>167183</v>
+        <v>166720</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>163618</v>
+        <v>162850</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>161322</v>
+        <v>162246</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>176889</v>
+        <v>178027</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>273659</v>
+        <v>275497</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>258650</v>
+        <v>261649</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>269492</v>
+        <v>269998</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>96760</v>
+        <v>96642</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>141639</v>
+        <v>139471</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>126169</v>
+        <v>126122</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>144995</v>
+        <v>143242</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>148727</v>
+        <v>152349</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>221642</v>
+        <v>221883</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>219723</v>
+        <v>216770</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>210144</v>
+        <v>210909</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>232281</v>
+        <v>234540</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>344412</v>
+        <v>347796</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>325258</v>
+        <v>327951</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>336487</v>
+        <v>340097</v>
       </c>
     </row>
     <row r="24">
